--- a/projections/Projections 2025.xlsx
+++ b/projections/Projections 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\Procasef_BETPLUS\Application\DashBoard\Dashnoard\projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3635F50-1D4F-41F6-8642-9BE3AE55A803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C78F00-0F04-4C0B-B338-49FC81EADB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{787450D8-BED8-44CE-AE66-58D79341F135}"/>
   </bookViews>
@@ -434,7 +434,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -482,7 +482,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>1067</v>
+        <v>2235</v>
       </c>
       <c r="C3" s="1">
         <v>8000</v>

--- a/projections/Projections 2025.xlsx
+++ b/projections/Projections 2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\Procasef_BETPLUS\Application\DashBoard\Dashnoard\projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C78F00-0F04-4C0B-B338-49FC81EADB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB66B1CA-AEB4-4E32-8274-595F2867DBCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{787450D8-BED8-44CE-AE66-58D79341F135}"/>
   </bookViews>
@@ -434,7 +434,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -482,13 +482,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>2235</v>
+        <v>3483</v>
       </c>
       <c r="C3" s="1">
         <v>8000</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D10" si="0">+D2+C3</f>
+        <f>+D2+C3</f>
         <v>26421</v>
       </c>
     </row>
@@ -501,7 +501,7 @@
         <v>8000</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D3:D10" si="0">+D3+C4</f>
         <v>34421</v>
       </c>
     </row>

--- a/projections/Projections 2025.xlsx
+++ b/projections/Projections 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\Procasef_BETPLUS\Application\DashBoard\Dashnoard\projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB66B1CA-AEB4-4E32-8274-595F2867DBCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF241D17-67E6-4956-8C6B-D334B3A2AACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{787450D8-BED8-44CE-AE66-58D79341F135}"/>
   </bookViews>
@@ -434,7 +434,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -482,7 +482,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>3483</v>
+        <v>4449</v>
       </c>
       <c r="C3" s="1">
         <v>8000</v>
@@ -501,7 +501,7 @@
         <v>8000</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D3:D10" si="0">+D3+C4</f>
+        <f t="shared" ref="D4:D10" si="0">+D3+C4</f>
         <v>34421</v>
       </c>
     </row>

--- a/projections/Projections 2025.xlsx
+++ b/projections/Projections 2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\Procasef_BETPLUS\Application\DashBoard\Dashnoard\projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF241D17-67E6-4956-8C6B-D334B3A2AACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AD7E51-4FEF-4021-AB20-90B5AF39D02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{787450D8-BED8-44CE-AE66-58D79341F135}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{787450D8-BED8-44CE-AE66-58D79341F135}"/>
   </bookViews>
   <sheets>
     <sheet name="Projection résultats l'an 2025" sheetId="2" r:id="rId1"/>
@@ -434,7 +434,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -470,7 +470,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>1882</v>
+        <v>4519</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1">
@@ -482,7 +482,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>4449</v>
+        <v>4890</v>
       </c>
       <c r="C3" s="1">
         <v>8000</v>
@@ -496,7 +496,9 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1">
+        <v>3517</v>
+      </c>
       <c r="C4" s="1">
         <v>8000</v>
       </c>
@@ -509,7 +511,9 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1">
+        <v>1257</v>
+      </c>
       <c r="C5" s="1">
         <v>8000</v>
       </c>

--- a/projections/Projections 2025.xlsx
+++ b/projections/Projections 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\Procasef_BETPLUS\Application\DashBoard\Dashnoard\projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AD7E51-4FEF-4021-AB20-90B5AF39D02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DF1EB7-AA32-487D-9043-1353587B4375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{787450D8-BED8-44CE-AE66-58D79341F135}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{787450D8-BED8-44CE-AE66-58D79341F135}"/>
   </bookViews>
   <sheets>
     <sheet name="Projection résultats l'an 2025" sheetId="2" r:id="rId1"/>
@@ -434,7 +434,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -472,7 +472,9 @@
       <c r="B2" s="1">
         <v>4519</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1">
+        <v>8000</v>
+      </c>
       <c r="D2" s="1">
         <v>18421</v>
       </c>

--- a/projections/Projections 2025.xlsx
+++ b/projections/Projections 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\Procasef_BETPLUS\Application\DashBoard\Dashnoard\projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DF1EB7-AA32-487D-9043-1353587B4375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF26B91-FEA3-4D75-83AE-D4860901DF08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{787450D8-BED8-44CE-AE66-58D79341F135}"/>
   </bookViews>
@@ -434,7 +434,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -514,7 +514,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>1257</v>
+        <v>3492</v>
       </c>
       <c r="C5" s="1">
         <v>8000</v>

--- a/projections/Projections 2025.xlsx
+++ b/projections/Projections 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\Procasef_BETPLUS\Application\DashBoard\Dashnoard\projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF26B91-FEA3-4D75-83AE-D4860901DF08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C8D899-FD9C-4B8B-A965-7920032DB920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{787450D8-BED8-44CE-AE66-58D79341F135}"/>
   </bookViews>
@@ -434,7 +434,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -514,7 +514,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>3492</v>
+        <v>5647</v>
       </c>
       <c r="C5" s="1">
         <v>8000</v>
